--- a/mainexcel/squad3/ПКд-22-1.xlsx
+++ b/mainexcel/squad3/ПКд-22-1.xlsx
@@ -133,6 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -676,23 +677,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="2.28515625"/>
+    <col min="2" max="2" customWidth="true" width="15.7109375"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.42578125"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375"/>
+    <col min="5" max="5" customWidth="true" style="2" width="18.7109375"/>
+    <col min="6" max="6" customWidth="true" width="2.7109375"/>
+    <col min="7" max="7" customWidth="true" style="1" width="2.28515625"/>
+    <col min="8" max="8" customWidth="true" width="15.7109375"/>
+    <col min="9" max="9" customWidth="true" style="2" width="25.140625"/>
+    <col min="10" max="10" customWidth="true" width="15.7109375"/>
+    <col min="11" max="11" customWidth="true" style="2" width="22.5703125"/>
+    <col min="12" max="12" customWidth="true" width="2.7109375"/>
+    <col min="13" max="13" customWidth="true" style="1" width="2.28515625"/>
+    <col min="14" max="14" customWidth="true" width="15.7109375"/>
+    <col min="15" max="15" customWidth="true" style="2" width="21.7109375"/>
+    <col min="16" max="16" customWidth="true" width="15.7109375"/>
+    <col min="17" max="17" customWidth="true" style="2" width="19.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75">
@@ -1907,144 +1908,92 @@
   </sheetData>
   <mergeCells count="139">
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="G48:G49"/>
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="H51:J51"/>
-    <mergeCell ref="G50:G51"/>
     <mergeCell ref="M43:Q43"/>
     <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="M44:M45"/>
     <mergeCell ref="N46:Q46"/>
     <mergeCell ref="N47:P47"/>
-    <mergeCell ref="M46:M47"/>
     <mergeCell ref="D50:E50"/>
-    <mergeCell ref="A50:A51"/>
     <mergeCell ref="G43:K43"/>
     <mergeCell ref="H44:I44"/>
-    <mergeCell ref="G44:G45"/>
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="H47:J47"/>
-    <mergeCell ref="G46:G47"/>
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="H49:J49"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A46:A47"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="B48:E48"/>
     <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A48:A49"/>
     <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="M39:M40"/>
     <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="M41:M42"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A44:A45"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="M35:M36"/>
     <mergeCell ref="P35:Q35"/>
     <mergeCell ref="N37:Q37"/>
     <mergeCell ref="N38:P38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="G33:G34"/>
     <mergeCell ref="J35:K35"/>
-    <mergeCell ref="G35:G36"/>
     <mergeCell ref="J37:K37"/>
-    <mergeCell ref="G37:G38"/>
     <mergeCell ref="M30:Q30"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="M31:M32"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="M33:M34"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="A35:A36"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A37:A38"/>
     <mergeCell ref="G30:K30"/>
     <mergeCell ref="H31:I31"/>
-    <mergeCell ref="G31:G32"/>
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A31:A32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A33:A34"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="N22:P22"/>
-    <mergeCell ref="M21:M22"/>
     <mergeCell ref="N23:Q23"/>
     <mergeCell ref="N24:P24"/>
-    <mergeCell ref="M23:M24"/>
     <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="G23:G24"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="G25:G26"/>
     <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G27:G28"/>
     <mergeCell ref="M18:Q18"/>
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="N20:P20"/>
-    <mergeCell ref="M19:M20"/>
     <mergeCell ref="N21:Q21"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A25:A26"/>
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="G19:G20"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="G21:G22"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A21:A22"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="N9:P9"/>
-    <mergeCell ref="M8:M9"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="M10:M11"/>
     <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="M12:M13"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G16:G17"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="N7:P7"/>
-    <mergeCell ref="M6:M7"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="H11:J11"/>
-    <mergeCell ref="G10:G11"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="G12:G13"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
